--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B7C45-0875-4300-88EE-918BEDBCA80B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EEF95-4609-4B20-98D5-5D2AAB508173}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EEF95-4609-4B20-98D5-5D2AAB508173}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FC62D-2841-4155-B17E-6E3D54563FB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
     <sheet name="simulation" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +183,58 @@
   </si>
   <si>
     <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0.04?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.04?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent who made the trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent who missed the trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean profit per passenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of passengers missed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of passengers made the trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent who made the trip:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent who missed the trip:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean profit per passenger:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +285,13 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -350,12 +410,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,50 +450,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,11 +471,64 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,15 +982,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>210820</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -901,8 +1005,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7691120" y="1664970"/>
-          <a:ext cx="463550" cy="182880"/>
+          <a:off x="7816850" y="1664970"/>
+          <a:ext cx="287020" cy="138430"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -931,15 +1035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -954,8 +1058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7651750" y="1891030"/>
-          <a:ext cx="487680" cy="186690"/>
+          <a:off x="7823200" y="1962150"/>
+          <a:ext cx="939800" cy="107950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -984,15 +1088,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1007,8 +1111,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7810500" y="2406650"/>
-          <a:ext cx="304800" cy="184150"/>
+          <a:off x="7785100" y="2387600"/>
+          <a:ext cx="965200" cy="107950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1037,15 +1141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1060,8 +1164,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7811770" y="2622550"/>
-          <a:ext cx="328930" cy="203200"/>
+          <a:off x="7823200" y="2660650"/>
+          <a:ext cx="901700" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1359,108 +1463,108 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="10.046875" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.94921875" customWidth="1"/>
-    <col min="13" max="13" width="12.94921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.9140625" customWidth="1"/>
+    <col min="13" max="13" width="12.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="C4" s="22"/>
+      <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
+      <c r="C5" s="22"/>
+      <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="9">
         <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="9">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="9">
         <v>0.04</v>
       </c>
     </row>
@@ -1472,165 +1576,174 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="K10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="F11" s="6"/>
-      <c r="G11" s="18" t="str">
+      <c r="F11" s="5"/>
+      <c r="G11" s="10" t="str">
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="F13" s="6"/>
-      <c r="G13" s="18" t="str">
+      <c r="F13" s="5"/>
+      <c r="G13" s="10" t="str">
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="18" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="F15" s="6"/>
-      <c r="G15" s="18" t="str">
+      <c r="F15" s="5"/>
+      <c r="G15" s="10" t="str">
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="18" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="D16" s="18" t="str">
+      <c r="D16" s="10" t="str">
         <f>L7</f>
         <v>P_c</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="F17" s="6"/>
-      <c r="G17" s="18" t="str">
+      <c r="F17" s="5"/>
+      <c r="G17" s="10" t="str">
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="18" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="23"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="J21" s="10" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="J21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="D22" s="9"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="5"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="4"/>
+      <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B10:D10"/>
@@ -1641,15 +1754,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1663,252 +1767,755 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B2D0-AB36-4652-A45F-79D6B6150643}">
-  <dimension ref="B3:P26"/>
+  <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="11.94921875" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
-    <col min="12" max="12" width="12.046875" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="C3" s="22"/>
+      <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="9">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:17">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="C4" s="22"/>
+      <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="17">
+      <c r="N4" s="9">
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="G6" s="8" t="s">
+    <row r="6" spans="2:17">
+      <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="17">
+      <c r="N6" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="G7" s="8" t="s">
+    <row r="7" spans="2:17">
+      <c r="G7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="9">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:17">
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="20" t="s">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="M9" s="2" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="N9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="J10" s="18" t="str">
-        <f ca="1">IF(I11="","",IF(I11&gt;=M6,"Yes",""))</f>
-        <v>Yes</v>
-      </c>
-      <c r="K10" s="15" t="s">
+    <row r="10" spans="2:17">
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
+        <v/>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27">
-        <f>D4</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="M10" s="16"/>
+      <c r="N10" s="28" t="str">
+        <f ca="1">IF(K10="","",0)</f>
+        <v/>
+      </c>
+      <c r="O10" s="29" t="str">
+        <f ca="1">IF(K10="","",$D$4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="18" t="str">
-        <f ca="1">IF(E13&gt;=M6,"Yes","")</f>
-        <v>Yes</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="10" t="str">
+        <f ca="1">IF(E13&gt;=N6,"Yes","")</f>
+        <v/>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="14" t="str">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v>0.95399093940668034</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="J12" s="18" t="str">
-        <f ca="1">IF(I11="","",IF(I11&gt;=M6,"","Yes"))</f>
         <v/>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="J12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
+        <v/>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27">
-        <f>D4</f>
-        <v>350</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="M12" s="16"/>
+      <c r="N12" s="28" t="str">
+        <f ca="1">IF(K12="","",-3000)</f>
+        <v/>
+      </c>
+      <c r="O12" s="29" t="str">
+        <f ca="1">IF(K12="","",$D$4)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:17">
+      <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="23"/>
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>0.3095508731368124</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="J14" s="18" t="str">
-        <f ca="1">IF(I15="","",IF(I15&gt;=M4,"Yes",""))</f>
-        <v/>
-      </c>
-      <c r="K14" s="15" t="s">
+        <v>4.6595011779342554E-2</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="Q13" s="27">
+        <f ca="1">SUM(N10:O16)</f>
+        <v>-2650</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
+        <v>Yes</v>
+      </c>
+      <c r="L14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27">
-        <f>D4</f>
+      <c r="M14" s="16"/>
+      <c r="N14" s="28">
+        <f ca="1">IF(K14="","",-3000)</f>
+        <v>-3000</v>
+      </c>
+      <c r="O14" s="29">
+        <f ca="1">IF(K14="","",$D$4)</f>
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:17">
       <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="18" t="str">
-        <f ca="1">IF(E13&gt;=M6,"","Yes")</f>
+      <c r="G15" s="10" t="str">
+        <f ca="1">IF(E13&gt;=N6,"","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="14">
+        <f ca="1">IF(G15="","",RAND())</f>
+        <v>0.10001414226484528</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="J16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="L16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="28" t="str">
+        <f ca="1">IF(K16="","",-3000)</f>
+        <v/>
+      </c>
+      <c r="O16" s="29" t="str">
+        <f ca="1">IF(K16="","",$D$4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="F19" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="5"/>
+      <c r="F20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="L21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="L22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="F23" s="32">
         <v>3</v>
       </c>
-      <c r="I15" s="26" t="str">
-        <f ca="1">IF(G15="","",RAND())</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="J16" s="18" t="str">
-        <f ca="1">IF(I15="","",IF(I15&gt;=M4,"","Yes"))</f>
-        <v/>
-      </c>
-      <c r="K16" s="15" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="L23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="F24" s="32">
         <v>4</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27">
-        <f>D4</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="L24" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="F25" s="32">
+        <v>5</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="F26" s="32">
+        <v>6</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="F27" s="32">
+        <v>7</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="5:14">
+      <c r="F28" s="32">
+        <v>8</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="5:14">
+      <c r="F29" s="32">
+        <v>9</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="5:14">
+      <c r="F30" s="32">
+        <v>10</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="5:14">
+      <c r="F31" s="32">
+        <v>11</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="F32" s="32">
+        <v>12</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="32">
+        <v>13</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="32">
+        <v>14</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="32">
+        <v>15</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="32">
+        <v>16</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="32">
+        <v>17</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="32">
+        <v>18</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="32">
+        <v>19</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="32">
+        <v>20</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="32">
+        <v>21</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" s="32">
+        <v>22</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="32">
+        <v>23</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" s="32">
+        <v>24</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" s="32">
+        <v>25</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G7:K7"/>
+  <mergeCells count="43">
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB5F7B-08DF-46BA-8DD1-C24146C206EA}">
+  <dimension ref="B3:H28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="32">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="32">
+        <v>4</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="F8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="32">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="F9" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="32">
+        <v>6</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="F10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="32">
+        <v>7</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="F11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="32">
+        <v>8</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="32">
+        <v>9</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="32">
+        <v>10</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="32">
+        <v>11</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="32">
+        <v>12</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="32">
+        <v>13</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="32">
+        <v>14</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="32">
+        <v>15</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="32">
+        <v>16</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="32">
+        <v>17</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="32">
+        <v>18</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="32">
+        <v>19</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="32">
+        <v>20</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="32">
+        <v>21</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="32">
+        <v>22</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="32">
+        <v>23</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="32">
+        <v>24</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FC62D-2841-4155-B17E-6E3D54563FB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EDC31-F746-4E01-AA91-4495BFFF7C1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,11 @@
   </si>
   <si>
     <t>Mean profit per passenger:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a pivot table:
+https://support.office.com/en-us/article/create-a-pivottable-to-analyze-worksheet-data-a9a84538-bfe9-40a9-a8e9-f99134456576</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +308,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -507,7 +524,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,6 +546,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1770,7 +1790,7 @@
   <dimension ref="B3:Q45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1889,19 +1909,19 @@
       </c>
       <c r="K10" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="27">
         <f ca="1">IF(K10="","",0)</f>
-        <v/>
-      </c>
-      <c r="O10" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
         <f ca="1">IF(K10="","",$D$4)</f>
-        <v/>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -1910,14 +1930,14 @@
       </c>
       <c r="G11" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"Yes","")</f>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="14">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v/>
+        <v>0.44943606222423782</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -1933,11 +1953,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="27" t="str">
         <f ca="1">IF(K12="","",-3000)</f>
         <v/>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="28" t="str">
         <f ca="1">IF(K12="","",$D$4)</f>
         <v/>
       </c>
@@ -1955,12 +1975,12 @@
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>4.6595011779342554E-2</v>
+        <v>0.45026177081990859</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="Q13" s="27">
+      <c r="Q13" s="36">
         <f ca="1">SUM(N10:O16)</f>
-        <v>-2650</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -1969,19 +1989,19 @@
       </c>
       <c r="K14" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="L14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="16"/>
-      <c r="N14" s="28">
+      <c r="N14" s="27" t="str">
         <f ca="1">IF(K14="","",-3000)</f>
-        <v>-3000</v>
-      </c>
-      <c r="O14" s="29">
+        <v/>
+      </c>
+      <c r="O14" s="28" t="str">
         <f ca="1">IF(K14="","",$D$4)</f>
-        <v>350</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -1990,14 +2010,14 @@
       </c>
       <c r="G15" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"","Yes")</f>
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="H15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="14" t="str">
         <f ca="1">IF(G15="","",RAND())</f>
-        <v>0.10001414226484528</v>
+        <v/>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -2013,229 +2033,244 @@
         <v>4</v>
       </c>
       <c r="M16" s="16"/>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="27" t="str">
         <f ca="1">IF(K16="","",-3000)</f>
         <v/>
       </c>
-      <c r="O16" s="29" t="str">
+      <c r="O16" s="28" t="str">
         <f ca="1">IF(K16="","",$D$4)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:14">
-      <c r="F19" s="33" t="s">
+    <row r="19" spans="2:14">
+      <c r="F19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="5:14">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="2:14">
       <c r="E20" s="5"/>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="F21" s="32">
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="F21" s="31">
         <v>1</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="L21" s="30" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="L21" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="F22" s="32">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="F22" s="31">
         <v>2</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="L22" s="34" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="L22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="F23" s="32">
+      <c r="M22" s="33"/>
+      <c r="N22" s="30"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="F23" s="31">
         <v>3</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="L23" s="34" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="L23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="F24" s="32">
+      <c r="M23" s="33"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="F24" s="31">
         <v>4</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="L24" s="34" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="L24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="F25" s="32">
+      <c r="M24" s="33"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="F25" s="31">
         <v>5</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="F26" s="32">
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="F26" s="31">
         <v>6</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="F27" s="32">
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="F27" s="31">
         <v>7</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="5:14">
-      <c r="F28" s="32">
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="F28" s="31">
         <v>8</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="5:14">
-      <c r="F29" s="32">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="F29" s="31">
         <v>9</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="5:14">
-      <c r="F30" s="32">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="F30" s="31">
         <v>10</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="5:14">
-      <c r="F31" s="32">
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="F31" s="31">
         <v>11</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="5:14">
-      <c r="F32" s="32">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="F32" s="31">
         <v>12</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>13</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>14</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="6:8">
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>15</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <v>16</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <v>17</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="6:8">
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <v>18</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="32">
+      <c r="F39" s="31">
         <v>19</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="32">
+      <c r="F40" s="31">
         <v>20</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="6:8">
-      <c r="F41" s="32">
+      <c r="F41" s="31">
         <v>21</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="6:8">
-      <c r="F42" s="32">
+      <c r="F42" s="31">
         <v>22</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="6:8">
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <v>23</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="32">
+      <c r="F44" s="31">
         <v>24</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="32">
+      <c r="F45" s="31">
         <v>25</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="B22:D25"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="F19:H19"/>
@@ -2302,210 +2337,210 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>4</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="F8" s="30" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>5</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="F9" s="35" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="31"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>6</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="F10" s="35" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>7</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="F11" s="35" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="F11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>8</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>9</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>11</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>12</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>13</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>14</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>15</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>16</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>17</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>18</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <v>19</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>20</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>21</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>22</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>23</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>24</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EDC31-F746-4E01-AA91-4495BFFF7C1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F76D5A-04F3-47B6-9639-79F432B80A6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
-    <sheet name="simulation" sheetId="2" r:id="rId2"/>
-    <sheet name="summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="simulation" sheetId="2" r:id="rId3"/>
+    <sheet name="summary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,55 +489,59 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1501,20 +1502,20 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1523,20 +1524,20 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1545,27 +1546,27 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1574,13 +1575,13 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1596,11 +1597,11 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="K10" t="s">
         <v>30</v>
       </c>
@@ -1611,10 +1612,10 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
@@ -1624,10 +1625,10 @@
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:14">
@@ -1636,22 +1637,22 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:14">
       <c r="F15" s="5"/>
@@ -1659,10 +1660,10 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1673,10 +1674,10 @@
         <f>L7</f>
         <v>P_c</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:11">
@@ -1685,26 +1686,26 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="J21" s="15" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="21"/>
+      <c r="J21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11">
       <c r="D22" s="6"/>
@@ -1755,15 +1756,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N6"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B10:D10"/>
@@ -1774,6 +1766,15 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1786,11 +1787,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DA0645-1737-4AB6-840C-DCF67919B422}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B2D0-AB36-4652-A45F-79D6B6150643}">
   <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1805,21 +1821,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1828,21 +1844,21 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1851,14 +1867,14 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1867,14 +1883,14 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1891,11 +1907,11 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="N9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1911,15 +1927,15 @@
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
         <v>Yes</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="27">
+      <c r="M10" s="22"/>
+      <c r="N10" s="15">
         <f ca="1">IF(K10="","",0)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="16">
         <f ca="1">IF(K10="","",$D$4)</f>
         <v>350</v>
       </c>
@@ -1937,7 +1953,7 @@
       </c>
       <c r="I11" s="14">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v>0.44943606222423782</v>
+        <v>0.27555618199306153</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -1949,15 +1965,15 @@
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="27" t="str">
+      <c r="M12" s="22"/>
+      <c r="N12" s="15" t="str">
         <f ca="1">IF(K12="","",-3000)</f>
         <v/>
       </c>
-      <c r="O12" s="28" t="str">
+      <c r="O12" s="16" t="str">
         <f ca="1">IF(K12="","",$D$4)</f>
         <v/>
       </c>
@@ -1966,19 +1982,19 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="30"/>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>0.45026177081990859</v>
+        <v>0.21914852870500934</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="Q13" s="36">
+      <c r="Q13" s="19">
         <f ca="1">SUM(N10:O16)</f>
         <v>350</v>
       </c>
@@ -1991,15 +2007,15 @@
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
         <v/>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="27" t="str">
+      <c r="M14" s="22"/>
+      <c r="N14" s="15" t="str">
         <f ca="1">IF(K14="","",-3000)</f>
         <v/>
       </c>
-      <c r="O14" s="28" t="str">
+      <c r="O14" s="16" t="str">
         <f ca="1">IF(K14="","",$D$4)</f>
         <v/>
       </c>
@@ -2029,247 +2045,275 @@
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="27" t="str">
+      <c r="M16" s="22"/>
+      <c r="N16" s="15" t="str">
         <f ca="1">IF(K16="","",-3000)</f>
         <v/>
       </c>
-      <c r="O16" s="28" t="str">
+      <c r="O16" s="16" t="str">
         <f ca="1">IF(K16="","",$D$4)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="2:14">
       <c r="E20" s="5"/>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="F21" s="31">
+      <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="L21" s="29" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="L21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="F22" s="31">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="L22" s="33" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="L22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="30"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="F23" s="31">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="F23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="L23" s="33" t="s">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="L23" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="30"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="F24" s="31">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="F24" s="18">
         <v>4</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="L24" s="33" t="s">
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="L24" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="30"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="F25" s="31">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="F25" s="18">
         <v>5</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="F26" s="31">
+      <c r="F26" s="18">
         <v>6</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="F27" s="31">
+      <c r="F27" s="18">
         <v>7</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="F28" s="31">
+      <c r="F28" s="18">
         <v>8</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="F29" s="31">
+      <c r="F29" s="18">
         <v>9</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="F30" s="31">
+      <c r="F30" s="18">
         <v>10</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="F31" s="31">
+      <c r="F31" s="18">
         <v>11</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="F32" s="31">
+      <c r="F32" s="18">
         <v>12</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="31">
+      <c r="F33" s="18">
         <v>13</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="31">
+      <c r="F34" s="18">
         <v>14</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="6:8">
-      <c r="F35" s="31">
+      <c r="F35" s="18">
         <v>15</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="31">
+      <c r="F36" s="18">
         <v>16</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="31">
+      <c r="F37" s="18">
         <v>17</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="6:8">
-      <c r="F38" s="31">
+      <c r="F38" s="18">
         <v>18</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="31">
+      <c r="F39" s="18">
         <v>19</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="31">
+      <c r="F40" s="18">
         <v>20</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="6:8">
-      <c r="F41" s="31">
+      <c r="F41" s="18">
         <v>21</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="6:8">
-      <c r="F42" s="31">
+      <c r="F42" s="18">
         <v>22</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="6:8">
-      <c r="F43" s="31">
+      <c r="F43" s="18">
         <v>23</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="31">
+      <c r="F44" s="18">
         <v>24</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="31">
+      <c r="F45" s="18">
         <v>25</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="B22:D25"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -2286,34 +2330,6 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,11 +2337,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB5F7B-08DF-46BA-8DD1-C24146C206EA}">
   <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2337,210 +2353,210 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="31">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="31">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="31">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="31">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="F8" s="29" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="31">
+      <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="34" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="31">
+      <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="34" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="F10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="31">
+      <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="F11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="31">
+      <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="31">
+      <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="31">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="31">
+      <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="31">
+      <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="31">
+      <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="31">
+      <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="31">
+      <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="31">
+      <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="31">
+      <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="31">
+      <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="31">
+      <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="31">
+      <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="31">
+      <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="31">
+      <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="31">
+      <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="31">
+      <c r="B28" s="18">
         <v>24</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F76D5A-04F3-47B6-9639-79F432B80A6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6CECB8-0476-4260-85F6-5CB507EB20BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="simulation" sheetId="2" r:id="rId3"/>
-    <sheet name="summary" sheetId="3" r:id="rId4"/>
+    <sheet name="simulation" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -159,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Insurance Company Profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>generate a random number:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,8 +234,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create a pivot table:
-https://support.office.com/en-us/article/create-a-pivottable-to-analyze-worksheet-data-a9a84538-bfe9-40a9-a8e9-f99134456576</t>
+    <t>Create a data table:
+https://www.excel-easy.com/examples/data-tables.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Profit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -500,6 +499,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -551,6 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -952,13 +958,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>271780</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
+      <xdr:rowOff>52070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>869950</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -973,7 +979,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1617980" y="2344420"/>
+          <a:off x="1592580" y="2363470"/>
           <a:ext cx="3360420" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1109,15 +1115,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>336550</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1132,8 +1138,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7785100" y="2387600"/>
-          <a:ext cx="965200" cy="107950"/>
+          <a:off x="8191500" y="2406650"/>
+          <a:ext cx="882650" cy="107950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1162,15 +1168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1185,8 +1191,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="2660650"/>
-          <a:ext cx="901700" cy="133350"/>
+          <a:off x="8197850" y="2654300"/>
+          <a:ext cx="844550" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1502,20 +1508,20 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1524,20 +1530,20 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1546,27 +1552,27 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1575,13 +1581,13 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1597,11 +1603,11 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="K10" t="s">
         <v>30</v>
       </c>
@@ -1612,10 +1618,10 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
@@ -1625,10 +1631,10 @@
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:14">
@@ -1637,22 +1643,22 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:14">
       <c r="F15" s="5"/>
@@ -1660,10 +1666,10 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1674,10 +1680,10 @@
         <f>L7</f>
         <v>P_c</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:11">
@@ -1686,26 +1692,26 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="21"/>
-      <c r="J21" s="25" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="23"/>
+      <c r="J21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="2:11">
       <c r="D22" s="6"/>
@@ -1787,26 +1793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DA0645-1737-4AB6-840C-DCF67919B422}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B2D0-AB36-4652-A45F-79D6B6150643}">
   <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:H21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1814,28 +1805,30 @@
     <col min="3" max="3" width="11.9140625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.4140625" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1844,21 +1837,21 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1867,14 +1860,14 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1883,14 +1876,14 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1907,30 +1900,30 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="N9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
         <v>Yes</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="15">
         <f ca="1">IF(K10="","",0)</f>
         <v>0</v>
@@ -1942,7 +1935,7 @@
     </row>
     <row r="11" spans="2:17">
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"Yes","")</f>
@@ -1953,22 +1946,22 @@
       </c>
       <c r="I11" s="14">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v>0.27555618199306153</v>
+        <v>0.87712575362195555</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:17">
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="15" t="str">
         <f ca="1">IF(K12="","",-3000)</f>
         <v/>
@@ -1978,20 +1971,20 @@
         <v/>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="32"/>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>0.21914852870500934</v>
+        <v>0.59214855226186369</v>
       </c>
       <c r="N13" s="5"/>
       <c r="Q13" s="19">
@@ -2001,16 +1994,16 @@
     </row>
     <row r="14" spans="2:17">
       <c r="J14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
         <v/>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="15" t="str">
         <f ca="1">IF(K14="","",-3000)</f>
         <v/>
@@ -2022,7 +2015,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"","Yes")</f>
@@ -2039,16 +2032,16 @@
     </row>
     <row r="16" spans="2:17">
       <c r="J16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="15" t="str">
         <f ca="1">IF(K16="","",-3000)</f>
         <v/>
@@ -2058,234 +2051,213 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="F19" s="34" t="s">
+    <row r="19" spans="3:8">
+      <c r="C19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <f ca="1">Q13</f>
+        <v>350</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="E20" s="5"/>
-      <c r="F20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="L21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="F22" s="18">
+      <c r="G21" s="37"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="L22" s="35" t="s">
+      <c r="D22" s="20"/>
+      <c r="F22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="F23" s="18">
+      <c r="G22" s="37"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="L23" s="35" t="s">
+      <c r="D23" s="20"/>
+      <c r="F23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="F24" s="18">
+      <c r="G23" s="37"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="18">
         <v>4</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="L24" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="F25" s="18">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="18">
         <v>5</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="F26" s="18">
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="18">
         <v>6</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="F27" s="18">
+      <c r="D26" s="20"/>
+      <c r="F26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="18">
         <v>7</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="F28" s="18">
+      <c r="D27" s="20"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="18">
         <v>8</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="F29" s="18">
+      <c r="D28" s="20"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="18">
         <v>9</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="F30" s="18">
+      <c r="D29" s="20"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="18">
         <v>10</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="F31" s="18">
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="18">
         <v>11</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="F32" s="18">
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="18">
         <v>12</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="18">
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="18">
         <v>13</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="18">
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="18">
         <v>14</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="18">
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="18">
         <v>15</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" s="18">
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="18">
         <v>16</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="18">
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="18">
         <v>17</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" s="18">
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="18">
         <v>18</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" s="18">
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="18">
         <v>19</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" s="18">
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="18">
         <v>20</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-    </row>
-    <row r="41" spans="6:8">
-      <c r="F41" s="18">
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="18">
         <v>21</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="6:8">
-      <c r="F42" s="18">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="18">
         <v>22</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" spans="6:8">
-      <c r="F43" s="18">
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="18">
         <v>23</v>
       </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="18">
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="18">
         <v>24</v>
       </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="18">
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="18">
         <v>25</v>
       </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
+      <c r="D45" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="18">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="B4:C4"/>
@@ -2294,42 +2266,13 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B22:D25"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="F26:H29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,12 +2280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB5F7B-08DF-46BA-8DD1-C24146C206EA}">
   <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2353,21 +2296,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2397,11 +2340,11 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="F8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="18">
@@ -2409,10 +2352,10 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="36"/>
+      <c r="F9" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="38"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8">
@@ -2421,10 +2364,10 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="36"/>
+      <c r="F10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="38"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8">
@@ -2433,10 +2376,10 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="36"/>
+      <c r="F11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="38"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8">

--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6CECB8-0476-4260-85F6-5CB507EB20BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFDA30-42EC-40E1-9387-CF744249E931}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,22 @@
   </si>
   <si>
     <t>Company Profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,14 +521,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,43 +558,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1009,15 +1025,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1032,8 +1048,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7816850" y="1664970"/>
-          <a:ext cx="287020" cy="138430"/>
+          <a:off x="8375650" y="1771650"/>
+          <a:ext cx="742950" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1062,15 +1078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1085,8 +1101,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="1962150"/>
-          <a:ext cx="939800" cy="107950"/>
+          <a:off x="8343900" y="1892300"/>
+          <a:ext cx="768350" cy="107950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1115,15 +1131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>565150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1138,8 +1154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8191500" y="2406650"/>
-          <a:ext cx="882650" cy="107950"/>
+          <a:off x="8420100" y="2482850"/>
+          <a:ext cx="666750" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1168,15 +1184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1191,8 +1207,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8197850" y="2654300"/>
-          <a:ext cx="844550" cy="133350"/>
+          <a:off x="8394700" y="2597150"/>
+          <a:ext cx="692150" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1508,20 +1524,20 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1530,20 +1546,20 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1552,27 +1568,27 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1581,13 +1597,13 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1603,11 +1619,11 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="K10" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1634,7 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="24"/>
@@ -1631,10 +1647,10 @@
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:14">
@@ -1643,7 +1659,7 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="26" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="24"/>
@@ -1653,12 +1669,12 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:14">
       <c r="F15" s="5"/>
@@ -1666,7 +1682,7 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="24"/>
@@ -1680,10 +1696,10 @@
         <f>L7</f>
         <v>P_c</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:11">
@@ -1692,7 +1708,7 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="26" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="24"/>
@@ -1705,13 +1721,13 @@
       <c r="D21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="23"/>
-      <c r="J21" s="27" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="J21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="27"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="2:11">
       <c r="D22" s="6"/>
@@ -1762,6 +1778,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B10:D10"/>
@@ -1772,15 +1797,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1796,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B2D0-AB36-4652-A45F-79D6B6150643}">
   <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1814,21 +1830,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1837,21 +1853,21 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1860,14 +1876,14 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1876,14 +1892,14 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1900,11 +1916,11 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="N9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1918,19 +1934,19 @@
       </c>
       <c r="K10" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
-        <v>Yes</v>
-      </c>
-      <c r="L10" s="23" t="s">
+        <v/>
+      </c>
+      <c r="L10" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="24"/>
-      <c r="N10" s="15">
+      <c r="N10" s="15" t="str">
         <f ca="1">IF(K10="","",0)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
+        <v/>
+      </c>
+      <c r="O10" s="16" t="str">
         <f ca="1">IF(K10="","",$D$4)</f>
-        <v>350</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -1939,14 +1955,14 @@
       </c>
       <c r="G11" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"Yes","")</f>
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="H11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="14" t="str">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v>0.87712575362195555</v>
+        <v/>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -1958,7 +1974,7 @@
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="26" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="24"/>
@@ -1975,21 +1991,21 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
       <c r="D13" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>0.59214855226186369</v>
+        <v>1.6628396079605423E-3</v>
       </c>
       <c r="N13" s="5"/>
       <c r="Q13" s="19">
         <f ca="1">SUM(N10:O16)</f>
-        <v>350</v>
+        <v>-2650</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -1998,19 +2014,19 @@
       </c>
       <c r="K14" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
-        <v/>
-      </c>
-      <c r="L14" s="23" t="s">
+        <v>Yes</v>
+      </c>
+      <c r="L14" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="24"/>
-      <c r="N14" s="15" t="str">
+      <c r="N14" s="15">
         <f ca="1">IF(K14="","",-3000)</f>
-        <v/>
-      </c>
-      <c r="O14" s="16" t="str">
+        <v>-3000</v>
+      </c>
+      <c r="O14" s="16">
         <f ca="1">IF(K14="","",$D$4)</f>
-        <v/>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -2019,14 +2035,14 @@
       </c>
       <c r="G15" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"","Yes")</f>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="14">
         <f ca="1">IF(G15="","",RAND())</f>
-        <v/>
+        <v>0.18711989369414916</v>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -2038,7 +2054,7 @@
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="26" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="24"/>
@@ -2051,33 +2067,39 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="36" t="s">
+    <row r="19" spans="3:13">
+      <c r="C19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="36"/>
-    </row>
-    <row r="20" spans="3:8">
+      <c r="D19" s="35"/>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="3:8">
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" s="18">
         <v>1</v>
       </c>
       <c r="D21" s="21">
         <f ca="1">Q13</f>
-        <v>350</v>
+        <v>-2650</v>
       </c>
       <c r="F21" s="37" t="s">
         <v>41</v>
@@ -2085,7 +2107,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:13">
       <c r="C22" s="18">
         <v>2</v>
       </c>
@@ -2095,8 +2117,11 @@
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="3:8">
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
       <c r="C23" s="18">
         <v>3</v>
       </c>
@@ -2106,70 +2131,73 @@
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="3:8">
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
       <c r="C24" s="18">
         <v>4</v>
       </c>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:13">
       <c r="C25" s="18">
         <v>5</v>
       </c>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:13">
       <c r="C26" s="18">
         <v>6</v>
       </c>
       <c r="D26" s="20"/>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="3:8">
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="3:13">
       <c r="C27" s="18">
         <v>7</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="3:8">
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="3:13">
       <c r="C28" s="18">
         <v>8</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="3:8">
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="3:13">
       <c r="C29" s="18">
         <v>9</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="3:8">
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="3:13">
       <c r="C30" s="18">
         <v>10</v>
       </c>
       <c r="D30" s="20"/>
     </row>
-    <row r="31" spans="3:8">
+    <row r="31" spans="3:13">
       <c r="C31" s="18">
         <v>11</v>
       </c>
       <c r="D31" s="20"/>
     </row>
-    <row r="32" spans="3:8">
+    <row r="32" spans="3:13">
       <c r="C32" s="18">
         <v>12</v>
       </c>
@@ -2255,6 +2283,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F26:H29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="L12:M12"/>
@@ -2266,13 +2301,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F26:H29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB5F7B-08DF-46BA-8DD1-C24146C206EA}">
   <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2296,11 +2324,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="18" t="s">
@@ -2340,11 +2368,11 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="18">
@@ -2352,10 +2380,10 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8">
@@ -2364,10 +2392,10 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8">
@@ -2376,10 +2404,10 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8">

--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFDA30-42EC-40E1-9387-CF744249E931}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8C7592-922D-45E9-96C9-D0A477FA58B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
   </si>
   <si>
     <t>P_c*C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pc*C_c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,6 +252,22 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_c*C_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -525,15 +537,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,20 +570,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1511,7 +1529,7 @@
     <col min="3" max="3" width="10.08203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.9140625" customWidth="1"/>
+    <col min="11" max="11" width="11.9140625" customWidth="1"/>
     <col min="13" max="13" width="12.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1524,20 +1542,20 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1546,20 +1564,20 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1568,27 +1586,27 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1597,13 +1615,13 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1619,13 +1637,22 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -1637,23 +1664,37 @@
       <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14">
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24" t="str">
+        <f>IF(G11="C","","C")</f>
+        <v/>
+      </c>
+      <c r="J12" s="24" t="str">
+        <f>IF(J11="P*C","","P*C")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="2:14">
+      <c r="D13" s="24" t="str">
+        <f>IF(D12="P","","P")</f>
+        <v/>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="10" t="str">
         <f>L8</f>
@@ -1662,19 +1703,30 @@
       <c r="H13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="G14" s="24" t="str">
+        <f>IF(G13="C_c","","C_c")</f>
+        <v/>
+      </c>
+      <c r="J14" s="24" t="str">
+        <f>IF(J13="P*C_c","","P*C_c")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="2:14">
       <c r="F15" s="5"/>
@@ -1685,24 +1737,38 @@
       <c r="H15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:14">
       <c r="D16" s="10" t="str">
         <f>L7</f>
         <v>P_c</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="F16" s="25"/>
+      <c r="G16" s="24" t="str">
+        <f>IF(G15="C","","C")</f>
+        <v/>
+      </c>
+      <c r="J16" s="24" t="str">
+        <f>IF(J15="P_c*C","","P_c*C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="D17" s="24" t="str">
+        <f>IF(D16="P_c","","P_c")</f>
+        <v/>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="10" t="str">
         <f>L8</f>
@@ -1711,25 +1777,38 @@
       <c r="H17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="K17" s="12"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="D21" s="24" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="G18" s="24" t="str">
+        <f>IF(G17="C_c","","C_c")</f>
+        <v/>
+      </c>
+      <c r="J18" s="24" t="str">
+        <f>IF(J17="P_c*C_c","","P_c*C_c")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="D21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="26"/>
+      <c r="J21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="J21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="2:14">
       <c r="D22" s="6"/>
       <c r="E22" s="8" t="s">
         <v>11</v>
@@ -1740,24 +1819,24 @@
       <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:14">
       <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="4"/>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1765,10 +1844,10 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="2:14">
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1778,15 +1857,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N6"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B10:D10"/>
@@ -1797,6 +1867,15 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1812,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B2D0-AB36-4652-A45F-79D6B6150643}">
   <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1830,21 +1909,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1853,21 +1932,21 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1876,14 +1955,14 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1892,14 +1971,14 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1916,21 +1995,21 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
@@ -1939,7 +2018,7 @@
       <c r="L10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="15" t="str">
         <f ca="1">IF(K10="","",0)</f>
         <v/>
@@ -1951,7 +2030,7 @@
     </row>
     <row r="11" spans="2:17">
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"Yes","")</f>
@@ -1968,7 +2047,7 @@
     </row>
     <row r="12" spans="2:17">
       <c r="J12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="10" t="str">
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
@@ -1977,7 +2056,7 @@
       <c r="L12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="15" t="str">
         <f ca="1">IF(K12="","",-3000)</f>
         <v/>
@@ -1987,20 +2066,20 @@
         <v/>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="35"/>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>1.6628396079605423E-3</v>
+        <v>3.3392564343203035E-2</v>
       </c>
       <c r="N13" s="5"/>
       <c r="Q13" s="19">
@@ -2010,7 +2089,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="J14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
@@ -2019,7 +2098,7 @@
       <c r="L14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="15">
         <f ca="1">IF(K14="","",-3000)</f>
         <v>-3000</v>
@@ -2031,7 +2110,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="10" t="str">
         <f ca="1">IF(E13&gt;=N6,"","Yes")</f>
@@ -2042,13 +2121,13 @@
       </c>
       <c r="I15" s="14">
         <f ca="1">IF(G15="","",RAND())</f>
-        <v>0.18711989369414916</v>
+        <v>0.27002085381244634</v>
       </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:17">
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="10" t="str">
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
@@ -2057,7 +2136,7 @@
       <c r="L16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="15" t="str">
         <f ca="1">IF(K16="","",-3000)</f>
         <v/>
@@ -2068,29 +2147,29 @@
       </c>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="C20" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="F20" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:13">
@@ -2101,10 +2180,10 @@
         <f ca="1">Q13</f>
         <v>-2650</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="37"/>
+      <c r="F21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="39"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="3:13">
@@ -2112,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="F22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="37"/>
+      <c r="F22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="39"/>
       <c r="H22" s="17"/>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:13">
@@ -2126,13 +2205,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="F23" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="37"/>
+      <c r="F23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="39"/>
       <c r="H23" s="17"/>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:13">
@@ -2152,38 +2231,38 @@
         <v>6</v>
       </c>
       <c r="D26" s="20"/>
-      <c r="F26" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="F26" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="3:13">
       <c r="C27" s="18">
         <v>7</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="3:13">
       <c r="C28" s="18">
         <v>8</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="3:13">
       <c r="C29" s="18">
         <v>9</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="18">
@@ -2283,13 +2362,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F26:H29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="L12:M12"/>
@@ -2301,6 +2373,13 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F26:H29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2324,21 +2403,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2368,11 +2447,11 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="18">
@@ -2380,10 +2459,10 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="39"/>
+      <c r="F9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="41"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8">
@@ -2392,10 +2471,10 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="39"/>
+      <c r="F10" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="41"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8">
@@ -2404,10 +2483,10 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="39"/>
+      <c r="F11" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="41"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8">

--- a/Lab5/Lab 5 SAWA.xlsx
+++ b/Lab5/Lab 5 SAWA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F317FFB-9C8D-43BA-A263-357233D61819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023E2F7-E8BF-4E53-8ACD-E239309FFD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Insurance coverage:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Cover</t>
+  </si>
+  <si>
+    <t>Table 5.4</t>
   </si>
 </sst>
 </file>
@@ -525,40 +528,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1505,13 +1508,13 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1171875" customWidth="1"/>
+    <col min="4" max="4" width="11.3515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.64453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.87890625" customWidth="1"/>
+    <col min="13" max="13" width="12.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
@@ -1523,20 +1526,20 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6">
         <v>3000</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1545,20 +1548,20 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6">
         <v>350</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1567,27 +1570,27 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1596,13 +1599,13 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1618,11 +1621,11 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="K10" t="s">
         <v>25</v>
       </c>
@@ -1642,10 +1645,10 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="11"/>
       <c r="K11" s="12" t="s">
         <v>55</v>
@@ -1665,10 +1668,10 @@
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="24" t="str">
         <f>IF(G11="C","","C")</f>
         <v/>
@@ -1688,10 +1691,10 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="10"/>
       <c r="K13" s="12" t="s">
         <v>56</v>
@@ -1708,12 +1711,12 @@
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
       <c r="G14" s="24" t="str">
         <f>IF(G13="C_c","","C_c")</f>
         <v/>
@@ -1729,10 +1732,10 @@
         <f>L5</f>
         <v>C</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="10"/>
       <c r="K15" s="12" t="s">
         <v>56</v>
@@ -1753,10 +1756,10 @@
         <f>L7</f>
         <v>P_c</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="24" t="str">
         <f>IF(G15="C","","C")</f>
         <v/>
@@ -1776,10 +1779,10 @@
         <f>L8</f>
         <v>C_c</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="10"/>
       <c r="K17" s="12" t="s">
         <v>56</v>
@@ -1806,16 +1809,16 @@
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="27"/>
-      <c r="J21" s="31" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="J21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:14">
       <c r="D22" s="6"/>
@@ -1870,6 +1873,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B10:D10"/>
@@ -1880,15 +1892,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1905,38 +1908,38 @@
   <dimension ref="B3:Q45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.87890625" customWidth="1"/>
+    <col min="4" max="4" width="24.3515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.64453125" customWidth="1"/>
+    <col min="7" max="7" width="14.234375" customWidth="1"/>
+    <col min="8" max="8" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.76171875" customWidth="1"/>
+    <col min="10" max="10" width="7.41015625" customWidth="1"/>
+    <col min="12" max="12" width="8.76171875" customWidth="1"/>
+    <col min="13" max="13" width="13.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1945,21 +1948,21 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6">
         <v>350</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1968,14 +1971,14 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1984,14 +1987,14 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2008,11 +2011,11 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2028,10 +2031,10 @@
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"Yes",""))</f>
         <v>Yes</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="15">
         <f ca="1">IF(K10="","",0)</f>
         <v>0</v>
@@ -2054,7 +2057,7 @@
       </c>
       <c r="I11" s="14">
         <f ca="1">IF(G11="","",RAND())</f>
-        <v>0.66719850329870245</v>
+        <v>0.37770586240515724</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -2066,10 +2069,10 @@
         <f ca="1">IF(I11="","",IF(I11&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="15" t="str">
         <f ca="1">IF(K12="","",-3000)</f>
         <v/>
@@ -2083,16 +2086,16 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="34"/>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="14">
         <f ca="1">RAND()</f>
-        <v>0.33069819726103378</v>
+        <v>0.25873590674099034</v>
       </c>
       <c r="N13" s="5"/>
       <c r="Q13" s="19">
@@ -2108,10 +2111,10 @@
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"Yes",""))</f>
         <v/>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="15" t="str">
         <f ca="1">IF(K14="","",-3000)</f>
         <v/>
@@ -2146,10 +2149,10 @@
         <f ca="1">IF(I15="","",IF(I15&gt;=N7,"","Yes"))</f>
         <v/>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="15" t="str">
         <f ca="1">IF(K16="","",-3000)</f>
         <v/>
@@ -2161,7 +2164,7 @@
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="38" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D19" s="38"/>
       <c r="K19" t="s">
@@ -2236,7 +2239,7 @@
       </c>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="3:13" ht="14.4" customHeight="1">
+    <row r="26" spans="3:13" ht="14.45" customHeight="1">
       <c r="C26" s="18">
         <v>6</v>
       </c>
@@ -2358,6 +2361,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="L12:M12"/>
@@ -2369,12 +2378,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,14 +2393,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.76171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.76171875" customWidth="1"/>
+    <col min="6" max="6" width="11.234375" customWidth="1"/>
+    <col min="7" max="7" width="13.234375" customWidth="1"/>
+    <col min="8" max="8" width="9.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
